--- a/POSCON.PCB.ECO.xlsx
+++ b/POSCON.PCB.ECO.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2">
-        <v>41925</v>
+        <v>41926</v>
       </c>
     </row>
   </sheetData>
